--- a/data/trans_orig/P39A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93FB217F-9559-4DD6-A6A1-ACBBC39BB487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF73F4D6-0289-4605-8AD4-ACC2ED56FDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F566C452-A2C8-4E25-84ED-809A97544761}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{093D3DBA-744E-4BA2-A217-A42BFA2FDE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="745">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2012 (Tasa respuesta: 83,66%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>3,58%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -106,2143 +106,2173 @@
     <t>23,67%</t>
   </si>
   <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2015 (Tasa respuesta: 83,44%)</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
   </si>
   <si>
     <t>23,65%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2015 (Tasa respuesta: 83,44%)</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
   </si>
 </sst>
 </file>
@@ -2654,7 +2684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A47F070-7980-4D33-AA62-791D738C9923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6ADD4-5A1A-45D1-B7E7-F09AA9235829}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2946,13 +2976,13 @@
         <v>12530</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -2961,19 +2991,19 @@
         <v>21984</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>37</v>
@@ -2982,13 +3012,13 @@
         <v>36042</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -2997,13 +3027,13 @@
         <v>48331</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>80</v>
@@ -3012,13 +3042,13 @@
         <v>84373</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3063,13 @@
         <v>90839</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>85</v>
@@ -3048,13 +3078,13 @@
         <v>97386</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>181</v>
@@ -3063,18 +3093,18 @@
         <v>188225</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3086,13 +3116,13 @@
         <v>46782</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -3101,13 +3131,13 @@
         <v>37273</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -3116,13 +3146,13 @@
         <v>84056</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3182,13 @@
         <v>71409</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
@@ -3167,13 +3197,13 @@
         <v>153788</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3218,13 @@
         <v>121183</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>77</v>
@@ -3203,13 +3233,13 @@
         <v>82828</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
@@ -3218,13 +3248,13 @@
         <v>204011</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3269,13 @@
         <v>68382</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -3254,10 +3284,10 @@
         <v>74255</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>92</v>
@@ -3281,7 +3311,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>166</v>
@@ -3341,13 +3371,13 @@
         <v>495989</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>472</v>
@@ -3356,13 +3386,13 @@
         <v>501510</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>934</v>
@@ -3371,13 +3401,13 @@
         <v>997498</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,7 +3430,7 @@
         <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3409,13 +3439,13 @@
         <v>72619</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -3424,13 +3454,13 @@
         <v>144798</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3475,13 @@
         <v>167699</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -3460,13 +3490,13 @@
         <v>133847</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>278</v>
@@ -3475,13 +3505,13 @@
         <v>301546</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3526,13 @@
         <v>204792</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>190</v>
@@ -3562,13 +3592,13 @@
         <v>126956</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -3577,19 +3607,19 @@
         <v>227954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>236</v>
@@ -3598,13 +3628,13 @@
         <v>260456</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>307</v>
@@ -3613,13 +3643,13 @@
         <v>338462</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>543</v>
@@ -3628,13 +3658,13 @@
         <v>598918</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3679,13 @@
         <v>806123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>803</v>
@@ -3664,13 +3694,13 @@
         <v>882638</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1543</v>
@@ -3679,18 +3709,18 @@
         <v>1688761</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3702,13 +3732,13 @@
         <v>53070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -3717,13 +3747,13 @@
         <v>49308</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>92</v>
@@ -3732,13 +3762,13 @@
         <v>102378</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3783,13 @@
         <v>133975</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>99</v>
@@ -3768,13 +3798,13 @@
         <v>111319</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>227</v>
@@ -3783,13 +3813,13 @@
         <v>245294</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3834,13 @@
         <v>180335</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>148</v>
@@ -3819,13 +3849,13 @@
         <v>165764</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>308</v>
@@ -3834,13 +3864,13 @@
         <v>346100</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3885,13 @@
         <v>62947</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -3870,13 +3900,13 @@
         <v>102762</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
@@ -3885,19 +3915,19 @@
         <v>165709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>159</v>
@@ -3906,13 +3936,13 @@
         <v>179558</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>225</v>
@@ -3921,13 +3951,13 @@
         <v>244999</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>384</v>
@@ -3936,13 +3966,13 @@
         <v>424558</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3987,13 @@
         <v>609885</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>611</v>
@@ -3972,13 +4002,13 @@
         <v>674153</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1162</v>
@@ -3987,18 +4017,18 @@
         <v>1284039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4010,13 +4040,13 @@
         <v>72111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>75</v>
@@ -4025,13 +4055,13 @@
         <v>80340</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>148</v>
@@ -4040,13 +4070,13 @@
         <v>152450</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4091,13 @@
         <v>183836</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -4076,7 +4106,7 @@
         <v>171074</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>208</v>
@@ -4091,7 +4121,7 @@
         <v>354910</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>210</v>
@@ -4169,7 +4199,7 @@
         <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="H31" s="7">
         <v>102</v>
@@ -4178,13 +4208,13 @@
         <v>105417</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>190</v>
@@ -4193,19 +4223,19 @@
         <v>201463</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>252</v>
@@ -4214,13 +4244,13 @@
         <v>271622</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>365</v>
@@ -4229,13 +4259,13 @@
         <v>385502</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>617</v>
@@ -4244,13 +4274,13 @@
         <v>657124</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4295,13 @@
         <v>779038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>882</v>
@@ -4280,13 +4310,13 @@
         <v>927415</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1624</v>
@@ -4295,13 +4325,13 @@
         <v>1706453</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4348,13 @@
         <v>247390</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>227</v>
@@ -4333,13 +4363,13 @@
         <v>247586</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>461</v>
@@ -4348,13 +4378,13 @@
         <v>494976</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4399,13 @@
         <v>589392</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>466</v>
@@ -4384,13 +4414,13 @@
         <v>503078</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>1034</v>
@@ -4399,7 +4429,7 @@
         <v>1092470</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>253</v>
@@ -4513,7 +4543,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>850</v>
@@ -4573,13 +4603,13 @@
         <v>2781874</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>2853</v>
@@ -4588,13 +4618,13 @@
         <v>3083102</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>5444</v>
@@ -4603,13 +4633,13 @@
         <v>5864976</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,7 +4665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C316ED21-D6C7-4B22-A55C-9A3ACE4F4531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1729EF-C028-44A4-9664-D3207393ABD3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4780,7 +4810,7 @@
         <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4789,13 +4819,13 @@
         <v>19254</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4840,13 @@
         <v>23488</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4825,13 +4855,13 @@
         <v>20423</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -4840,13 +4870,13 @@
         <v>43911</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4891,13 @@
         <v>26131</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -4876,13 +4906,13 @@
         <v>34022</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -4891,13 +4921,13 @@
         <v>60153</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4942,13 @@
         <v>15843</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4927,13 +4957,13 @@
         <v>8895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4942,19 +4972,19 @@
         <v>24738</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>26</v>
@@ -4963,13 +4993,13 @@
         <v>26743</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -4978,13 +5008,13 @@
         <v>27750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -4993,13 +5023,13 @@
         <v>54493</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5044,13 @@
         <v>102959</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -5029,13 +5059,13 @@
         <v>99590</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>200</v>
@@ -5044,18 +5074,18 @@
         <v>202549</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5067,13 +5097,13 @@
         <v>56592</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5082,13 +5112,13 @@
         <v>42093</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -5097,13 +5127,13 @@
         <v>98685</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,10 +5148,10 @@
         <v>103649</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>335</v>
@@ -5136,10 +5166,10 @@
         <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>212</v>
@@ -5148,13 +5178,13 @@
         <v>213013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5199,13 @@
         <v>130591</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H12" s="7">
         <v>111</v>
@@ -5184,13 +5214,13 @@
         <v>114074</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M12" s="7">
         <v>239</v>
@@ -5199,13 +5229,13 @@
         <v>244665</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5250,13 @@
         <v>61699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5235,13 +5265,13 @@
         <v>76196</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5250,19 +5280,19 @@
         <v>137895</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>89</v>
@@ -5271,13 +5301,13 @@
         <v>91644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -5286,13 +5316,13 @@
         <v>134504</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>217</v>
@@ -5301,13 +5331,13 @@
         <v>226148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5352,13 @@
         <v>444174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>466</v>
@@ -5337,13 +5367,13 @@
         <v>476232</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>896</v>
@@ -5352,13 +5382,13 @@
         <v>920406</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5405,13 @@
         <v>114502</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -5390,13 +5420,13 @@
         <v>116508</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -5405,13 +5435,13 @@
         <v>231010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5456,13 @@
         <v>202760</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>224</v>
@@ -5441,13 +5471,13 @@
         <v>237252</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -5456,13 +5486,13 @@
         <v>440012</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5507,13 @@
         <v>223690</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H18" s="7">
         <v>210</v>
@@ -5492,13 +5522,13 @@
         <v>226484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>167</v>
+        <v>390</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M18" s="7">
         <v>423</v>
@@ -5507,13 +5537,13 @@
         <v>450174</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5558,13 @@
         <v>104147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>203</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -5543,13 +5573,13 @@
         <v>147377</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>232</v>
@@ -5558,19 +5588,19 @@
         <v>251524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>159</v>
@@ -5579,13 +5609,13 @@
         <v>170367</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -5594,13 +5624,13 @@
         <v>205287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="M20" s="7">
         <v>345</v>
@@ -5609,13 +5639,13 @@
         <v>375654</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5660,13 @@
         <v>815466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>867</v>
@@ -5645,13 +5675,13 @@
         <v>932907</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1630</v>
@@ -5660,18 +5690,18 @@
         <v>1748373</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5683,13 +5713,13 @@
         <v>58994</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -5698,13 +5728,13 @@
         <v>51608</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -5713,13 +5743,13 @@
         <v>110602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5764,13 @@
         <v>187052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="H23" s="7">
         <v>174</v>
@@ -5749,13 +5779,13 @@
         <v>182236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M23" s="7">
         <v>348</v>
@@ -5764,13 +5794,13 @@
         <v>369288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5815,13 @@
         <v>173691</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H24" s="7">
         <v>201</v>
@@ -5800,13 +5830,13 @@
         <v>215458</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M24" s="7">
         <v>361</v>
@@ -5815,13 +5845,13 @@
         <v>389150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5866,13 @@
         <v>68708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>431</v>
+        <v>28</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5851,13 +5881,13 @@
         <v>83145</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>432</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -5866,19 +5896,19 @@
         <v>151852</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>99</v>
@@ -5887,13 +5917,13 @@
         <v>111027</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
@@ -5902,13 +5932,13 @@
         <v>162713</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>245</v>
@@ -5917,13 +5947,13 @@
         <v>273740</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>87</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5968,13 @@
         <v>599472</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>648</v>
@@ -5953,13 +5983,13 @@
         <v>695160</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1199</v>
@@ -5968,18 +5998,18 @@
         <v>1294632</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5991,13 +6021,13 @@
         <v>88665</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>290</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>446</v>
+        <v>28</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -6006,13 +6036,13 @@
         <v>63162</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>152</v>
@@ -6021,13 +6051,13 @@
         <v>151827</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6072,13 @@
         <v>190881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>195</v>
@@ -6057,13 +6087,13 @@
         <v>204795</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>257</v>
+        <v>463</v>
       </c>
       <c r="M29" s="7">
         <v>382</v>
@@ -6072,13 +6102,13 @@
         <v>395676</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>458</v>
+        <v>39</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6123,13 @@
         <v>198810</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H30" s="7">
         <v>211</v>
@@ -6108,13 +6138,13 @@
         <v>229399</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>465</v>
+        <v>339</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M30" s="7">
         <v>409</v>
@@ -6123,13 +6153,13 @@
         <v>428209</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6174,13 @@
         <v>113841</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="H31" s="7">
         <v>125</v>
@@ -6159,13 +6189,13 @@
         <v>142193</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M31" s="7">
         <v>238</v>
@@ -6174,19 +6204,19 @@
         <v>256034</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>363</v>
+        <v>479</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>166</v>
@@ -6195,13 +6225,13 @@
         <v>164779</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>390</v>
+        <v>482</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H32" s="7">
         <v>209</v>
@@ -6210,13 +6240,13 @@
         <v>238702</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>383</v>
+        <v>484</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M32" s="7">
         <v>375</v>
@@ -6225,13 +6255,13 @@
         <v>403481</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>481</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6276,13 @@
         <v>756977</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>800</v>
@@ -6261,13 +6291,13 @@
         <v>878250</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1556</v>
@@ -6276,13 +6306,13 @@
         <v>1635227</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6329,13 @@
         <v>329509</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>34</v>
+        <v>491</v>
       </c>
       <c r="H34" s="7">
         <v>273</v>
@@ -6314,13 +6344,13 @@
         <v>281869</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>133</v>
+        <v>494</v>
       </c>
       <c r="M34" s="7">
         <v>586</v>
@@ -6329,13 +6359,13 @@
         <v>611378</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6380,13 @@
         <v>707829</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H35" s="7">
         <v>723</v>
@@ -6365,13 +6395,13 @@
         <v>754070</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M35" s="7">
         <v>1398</v>
@@ -6380,13 +6410,13 @@
         <v>1461900</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6431,13 @@
         <v>752913</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H36" s="7">
         <v>768</v>
@@ -6416,13 +6446,13 @@
         <v>819437</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>29</v>
+        <v>510</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="M36" s="7">
         <v>1493</v>
@@ -6431,13 +6461,13 @@
         <v>1572350</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,10 +6485,10 @@
         <v>34</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="H37" s="7">
         <v>420</v>
@@ -6467,13 +6497,13 @@
         <v>457805</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>184</v>
+        <v>518</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>508</v>
+        <v>403</v>
       </c>
       <c r="M37" s="7">
         <v>768</v>
@@ -6482,19 +6512,19 @@
         <v>822043</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>510</v>
+        <v>82</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>511</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>539</v>
@@ -6503,13 +6533,13 @@
         <v>564559</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>415</v>
+        <v>523</v>
       </c>
       <c r="H38" s="7">
         <v>697</v>
@@ -6518,13 +6548,13 @@
         <v>768957</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="M38" s="7">
         <v>1236</v>
@@ -6533,13 +6563,13 @@
         <v>1333516</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6584,13 @@
         <v>2719048</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>2881</v>
@@ -6569,13 +6599,13 @@
         <v>3082138</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>5481</v>
@@ -6584,13 +6614,13 @@
         <v>5801187</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,7 +6646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6063D7EB-679A-4A8A-B618-2FCEB67D4BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F2699-E88A-4835-A00F-4BD212893EB8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6633,7 +6663,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6740,13 +6770,13 @@
         <v>13343</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -6755,13 +6785,13 @@
         <v>10328</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>525</v>
+        <v>34</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -6770,13 +6800,13 @@
         <v>23670</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6821,13 @@
         <v>24244</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -6806,13 +6836,13 @@
         <v>18929</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="M5" s="7">
         <v>61</v>
@@ -6821,13 +6851,13 @@
         <v>43173</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>536</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>537</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6872,13 @@
         <v>19124</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>457</v>
+        <v>544</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>538</v>
+        <v>87</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H6" s="7">
         <v>42</v>
@@ -6857,13 +6887,13 @@
         <v>21037</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>541</v>
+        <v>132</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -6872,13 +6902,13 @@
         <v>40161</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>396</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6923,13 @@
         <v>14597</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="H7" s="7">
         <v>50</v>
@@ -6908,13 +6938,13 @@
         <v>26281</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>547</v>
+        <v>366</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -6923,19 +6953,19 @@
         <v>40878</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>551</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>28</v>
@@ -6944,13 +6974,13 @@
         <v>23222</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -6959,13 +6989,13 @@
         <v>43887</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="M8" s="7">
         <v>113</v>
@@ -6974,13 +7004,13 @@
         <v>67108</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +7025,13 @@
         <v>94530</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>230</v>
@@ -7010,13 +7040,13 @@
         <v>120462</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>341</v>
@@ -7025,18 +7055,18 @@
         <v>214991</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7048,13 +7078,13 @@
         <v>37432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>561</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -7063,13 +7093,13 @@
         <v>52491</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>564</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>567</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -7078,13 +7108,13 @@
         <v>89923</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>567</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7129,13 @@
         <v>115847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>381</v>
+        <v>570</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
       <c r="H11" s="7">
         <v>166</v>
@@ -7114,13 +7144,13 @@
         <v>107444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="M11" s="7">
         <v>279</v>
@@ -7129,13 +7159,13 @@
         <v>223291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7180,13 @@
         <v>130197</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H12" s="7">
         <v>249</v>
@@ -7165,13 +7195,13 @@
         <v>139747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>583</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>420</v>
+        <v>584</v>
       </c>
       <c r="M12" s="7">
         <v>408</v>
@@ -7180,13 +7210,13 @@
         <v>269944</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7231,13 @@
         <v>94132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>582</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -7216,13 +7246,13 @@
         <v>103457</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>591</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="M13" s="7">
         <v>307</v>
@@ -7231,19 +7261,19 @@
         <v>197589</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>138</v>
@@ -7252,13 +7282,13 @@
         <v>104454</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>597</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>590</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>251</v>
@@ -7267,13 +7297,13 @@
         <v>137485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>598</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="M14" s="7">
         <v>389</v>
@@ -7282,13 +7312,13 @@
         <v>241939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7333,13 @@
         <v>482061</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>931</v>
@@ -7318,13 +7348,13 @@
         <v>540624</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1491</v>
@@ -7333,13 +7363,13 @@
         <v>1022686</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7386,13 @@
         <v>72079</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>596</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -7371,13 +7401,13 @@
         <v>65145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>605</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -7386,13 +7416,13 @@
         <v>137224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7437,13 @@
         <v>176380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>454</v>
+        <v>611</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>500</v>
+        <v>613</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
@@ -7422,13 +7452,13 @@
         <v>199457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="M17" s="7">
         <v>443</v>
@@ -7437,13 +7467,13 @@
         <v>375837</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7488,13 @@
         <v>254009</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="H18" s="7">
         <v>408</v>
@@ -7473,13 +7503,13 @@
         <v>258415</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>614</v>
+        <v>187</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="M18" s="7">
         <v>654</v>
@@ -7488,13 +7518,13 @@
         <v>512424</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7539,13 @@
         <v>135454</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H19" s="7">
         <v>251</v>
@@ -7524,13 +7554,13 @@
         <v>164249</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="M19" s="7">
         <v>405</v>
@@ -7539,19 +7569,19 @@
         <v>299703</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>75</v>
+        <v>632</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>183</v>
@@ -7560,13 +7590,13 @@
         <v>157019</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>637</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -7575,13 +7605,13 @@
         <v>235994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>639</v>
       </c>
       <c r="M20" s="7">
         <v>534</v>
@@ -7590,13 +7620,13 @@
         <v>393013</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>629</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>630</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,16 +7638,16 @@
         <v>817</v>
       </c>
       <c r="D21" s="7">
-        <v>794940</v>
+        <v>794941</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1372</v>
@@ -7626,13 +7656,13 @@
         <v>923260</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>2189</v>
@@ -7641,18 +7671,18 @@
         <v>1718201</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7664,13 +7694,13 @@
         <v>50707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="H22" s="7">
         <v>80</v>
@@ -7679,13 +7709,13 @@
         <v>60991</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -7694,13 +7724,13 @@
         <v>111698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>647</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>639</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7745,13 @@
         <v>197799</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="H23" s="7">
         <v>261</v>
@@ -7730,13 +7760,13 @@
         <v>310050</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="M23" s="7">
         <v>440</v>
@@ -7745,13 +7775,13 @@
         <v>507848</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>310</v>
+        <v>655</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7796,13 @@
         <v>160372</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>375</v>
+        <v>659</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="H24" s="7">
         <v>270</v>
@@ -7781,13 +7811,13 @@
         <v>204678</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>652</v>
+        <v>418</v>
       </c>
       <c r="M24" s="7">
         <v>427</v>
@@ -7796,13 +7826,13 @@
         <v>365049</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>654</v>
+        <v>215</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7847,13 @@
         <v>95162</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>392</v>
+        <v>666</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="H25" s="7">
         <v>146</v>
@@ -7832,13 +7862,13 @@
         <v>89296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>196</v>
+        <v>669</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="M25" s="7">
         <v>244</v>
@@ -7847,19 +7877,19 @@
         <v>184458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>115</v>
@@ -7868,13 +7898,13 @@
         <v>103246</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>115</v>
+        <v>675</v>
       </c>
       <c r="H26" s="7">
         <v>203</v>
@@ -7883,13 +7913,13 @@
         <v>124485</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="M26" s="7">
         <v>318</v>
@@ -7898,13 +7928,13 @@
         <v>227731</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,13 +7949,13 @@
         <v>607286</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>960</v>
@@ -7934,13 +7964,13 @@
         <v>789500</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1550</v>
@@ -7949,18 +7979,18 @@
         <v>1396786</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7972,13 +8002,13 @@
         <v>54592</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>670</v>
+        <v>62</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="H28" s="7">
         <v>89</v>
@@ -7987,13 +8017,13 @@
         <v>71430</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>17</v>
+        <v>685</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>246</v>
+        <v>686</v>
       </c>
       <c r="M28" s="7">
         <v>147</v>
@@ -8002,13 +8032,13 @@
         <v>126022</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>674</v>
+        <v>569</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>638</v>
+        <v>687</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8053,13 @@
         <v>176898</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="H29" s="7">
         <v>264</v>
@@ -8038,13 +8068,13 @@
         <v>184376</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>680</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>681</v>
+        <v>262</v>
       </c>
       <c r="M29" s="7">
         <v>447</v>
@@ -8053,13 +8083,13 @@
         <v>361274</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>684</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8104,13 @@
         <v>225752</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="H30" s="7">
         <v>385</v>
@@ -8089,13 +8119,13 @@
         <v>269764</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>699</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="M30" s="7">
         <v>626</v>
@@ -8104,13 +8134,13 @@
         <v>495516</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>346</v>
+        <v>702</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,13 +8155,13 @@
         <v>139216</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>704</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="H31" s="7">
         <v>249</v>
@@ -8140,13 +8170,13 @@
         <v>168140</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>694</v>
+        <v>353</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="M31" s="7">
         <v>410</v>
@@ -8155,19 +8185,19 @@
         <v>307356</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>122</v>
+        <v>710</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>582</v>
+        <v>711</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>205</v>
@@ -8176,13 +8206,13 @@
         <v>172760</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>699</v>
+        <v>427</v>
       </c>
       <c r="H32" s="7">
         <v>404</v>
@@ -8191,13 +8221,13 @@
         <v>272976</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>700</v>
+        <v>613</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="M32" s="7">
         <v>609</v>
@@ -8206,13 +8236,13 @@
         <v>445737</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>702</v>
+        <v>309</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>301</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,13 +8257,13 @@
         <v>769218</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>1391</v>
@@ -8242,13 +8272,13 @@
         <v>966686</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>2239</v>
@@ -8257,13 +8287,13 @@
         <v>1735905</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,13 +8310,13 @@
         <v>228153</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>704</v>
+        <v>452</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="H34" s="7">
         <v>342</v>
@@ -8295,13 +8325,13 @@
         <v>260385</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>69</v>
+        <v>718</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="M34" s="7">
         <v>559</v>
@@ -8310,13 +8340,13 @@
         <v>488537</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>708</v>
+        <v>456</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>153</v>
+        <v>719</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>333</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,13 +8361,13 @@
         <v>691167</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>334</v>
+        <v>589</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="H35" s="7">
         <v>1004</v>
@@ -8346,13 +8376,13 @@
         <v>820255</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="M35" s="7">
         <v>1670</v>
@@ -8361,13 +8391,13 @@
         <v>1511422</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>256</v>
+        <v>727</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>646</v>
+        <v>728</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8382,13 +8412,13 @@
         <v>789455</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>715</v>
+        <v>131</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="H36" s="7">
         <v>1354</v>
@@ -8397,13 +8427,13 @@
         <v>893640</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>580</v>
+        <v>731</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>718</v>
+        <v>471</v>
       </c>
       <c r="M36" s="7">
         <v>2183</v>
@@ -8412,13 +8442,13 @@
         <v>1683095</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>721</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,13 +8463,13 @@
         <v>478561</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>351</v>
+        <v>734</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>550</v>
+        <v>482</v>
       </c>
       <c r="H37" s="7">
         <v>890</v>
@@ -8448,13 +8478,13 @@
         <v>551424</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="M37" s="7">
         <v>1435</v>
@@ -8463,19 +8493,19 @@
         <v>1029985</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>725</v>
+        <v>167</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>727</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>669</v>
@@ -8484,13 +8514,13 @@
         <v>560701</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>657</v>
+        <v>740</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="H38" s="7">
         <v>1294</v>
@@ -8499,13 +8529,13 @@
         <v>814828</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>730</v>
+        <v>363</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="M38" s="7">
         <v>1963</v>
@@ -8514,13 +8544,13 @@
         <v>1375529</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>732</v>
+        <v>36</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8535,13 +8565,13 @@
         <v>2748036</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>4884</v>
@@ -8550,13 +8580,13 @@
         <v>3340532</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>7810</v>
@@ -8565,13 +8595,13 @@
         <v>6088568</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P39A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF73F4D6-0289-4605-8AD4-ACC2ED56FDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2815AE70-5D3D-4C8C-BBBA-991B4F6863A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{093D3DBA-744E-4BA2-A217-A42BFA2FDE1D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9211F908-8EF2-4517-B7ED-372EFE6E32AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="747">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2012 (Tasa respuesta: 83,66%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 3 años</t>
@@ -76,28 +76,28 @@
     <t>3,58%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -106,28 +106,28 @@
     <t>23,67%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
   <si>
     <t>Entre seis meses y un año</t>
@@ -136,2137 +136,2143 @@
     <t>22,67%</t>
   </si>
   <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2016 (Tasa respuesta: 83,44%)</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>22,59%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2015 (Tasa respuesta: 83,44%)</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
   </si>
   <si>
     <t>21,11%</t>
@@ -2684,7 +2690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D6ADD4-5A1A-45D1-B7E7-F09AA9235829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11C8A42-D1F8-47A0-A1B1-EEC7171F53E7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2913,10 +2919,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -2925,13 +2931,13 @@
         <v>13051</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -2940,19 +2946,19 @@
         <v>33641</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -2961,13 +2967,13 @@
         <v>9454</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2976,7 +2982,7 @@
         <v>12530</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
@@ -3170,10 +3176,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>69</v>
@@ -3182,7 +3188,7 @@
         <v>71409</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>73</v>
@@ -3260,7 +3266,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>60</v>
@@ -3430,7 +3436,7 @@
         <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3439,13 +3445,13 @@
         <v>72619</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -3454,13 +3460,13 @@
         <v>144798</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3481,13 @@
         <v>167699</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -3490,13 +3496,13 @@
         <v>133847</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>278</v>
@@ -3505,13 +3511,13 @@
         <v>301546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3532,13 @@
         <v>204792</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>190</v>
@@ -3541,13 +3547,13 @@
         <v>210753</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>383</v>
@@ -3556,19 +3562,19 @@
         <v>415545</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>89</v>
@@ -3577,13 +3583,13 @@
         <v>100998</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -3592,13 +3598,13 @@
         <v>126956</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -3607,13 +3613,13 @@
         <v>227954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3634,13 @@
         <v>260456</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>307</v>
@@ -3643,13 +3649,13 @@
         <v>338462</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>543</v>
@@ -3658,13 +3664,13 @@
         <v>598918</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,7 +3726,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3732,13 +3738,13 @@
         <v>53070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -3747,10 +3753,10 @@
         <v>49308</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>156</v>
@@ -3876,7 +3882,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>57</v>
@@ -4076,7 +4082,7 @@
         <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4097,13 @@
         <v>183836</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>164</v>
@@ -4106,7 +4112,7 @@
         <v>171074</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>208</v>
@@ -4121,7 +4127,7 @@
         <v>354910</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>210</v>
@@ -4184,7 +4190,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>88</v>
@@ -4199,7 +4205,7 @@
         <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>102</v>
@@ -4208,13 +4214,13 @@
         <v>105417</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>190</v>
@@ -4223,13 +4229,13 @@
         <v>201463</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4250,13 @@
         <v>271622</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>365</v>
@@ -4259,13 +4265,13 @@
         <v>385502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>617</v>
@@ -4274,13 +4280,13 @@
         <v>657124</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4354,13 @@
         <v>247390</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>227</v>
@@ -4363,13 +4369,13 @@
         <v>247586</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>461</v>
@@ -4378,13 +4384,13 @@
         <v>494976</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4405,13 @@
         <v>589392</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>466</v>
@@ -4414,13 +4420,13 @@
         <v>503078</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>1034</v>
@@ -4429,13 +4435,13 @@
         <v>1092470</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4456,13 @@
         <v>682324</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>603</v>
@@ -4465,13 +4471,13 @@
         <v>657479</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="M36" s="7">
         <v>1238</v>
@@ -4480,19 +4486,19 @@
         <v>1339803</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>304</v>
@@ -4501,13 +4507,13 @@
         <v>337827</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>395</v>
@@ -4516,13 +4522,13 @@
         <v>421920</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>699</v>
@@ -4531,13 +4537,13 @@
         <v>759747</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4558,13 @@
         <v>924941</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>1162</v>
@@ -4567,13 +4573,13 @@
         <v>1253039</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>2012</v>
@@ -4582,13 +4588,13 @@
         <v>2177980</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,7 +4650,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4665,7 +4671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1729EF-C028-44A4-9664-D3207393ABD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2CEC09-2E0E-46E8-B945-C05AE572C22C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4682,7 +4688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4789,13 +4795,13 @@
         <v>10755</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4804,13 +4810,13 @@
         <v>8499</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4819,13 +4825,13 @@
         <v>19254</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4846,13 @@
         <v>23488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>293</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4855,13 +4861,13 @@
         <v>20423</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -4870,13 +4876,13 @@
         <v>43911</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4897,13 @@
         <v>26131</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -4906,13 +4912,13 @@
         <v>34022</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -4921,10 +4927,10 @@
         <v>60153</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>307</v>
@@ -4933,7 +4939,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>14</v>
@@ -4945,10 +4951,10 @@
         <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4960,10 +4966,10 @@
         <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4972,13 +4978,13 @@
         <v>24738</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4999,13 @@
         <v>26743</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -5008,13 +5014,13 @@
         <v>27750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -5023,13 +5029,13 @@
         <v>54493</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5103,13 @@
         <v>56592</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5112,13 +5118,13 @@
         <v>42093</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -5127,13 +5133,13 @@
         <v>98685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5154,13 @@
         <v>103649</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
@@ -5163,13 +5169,13 @@
         <v>109365</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>212</v>
@@ -5178,7 +5184,7 @@
         <v>213013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>340</v>
@@ -5241,7 +5247,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>60</v>
@@ -5256,7 +5262,7 @@
         <v>352</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5265,10 +5271,10 @@
         <v>76196</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>355</v>
@@ -5319,10 +5325,10 @@
         <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>217</v>
@@ -5331,13 +5337,13 @@
         <v>226148</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5411,13 @@
         <v>114502</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -5420,13 +5426,13 @@
         <v>116508</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -5435,13 +5441,13 @@
         <v>231010</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5462,13 @@
         <v>202760</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>224</v>
@@ -5471,13 +5477,13 @@
         <v>237252</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -5486,13 +5492,13 @@
         <v>440012</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5513,13 @@
         <v>223690</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H18" s="7">
         <v>210</v>
@@ -5522,13 +5528,13 @@
         <v>226484</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M18" s="7">
         <v>423</v>
@@ -5537,19 +5543,19 @@
         <v>450174</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>97</v>
@@ -5558,13 +5564,13 @@
         <v>104147</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -5573,13 +5579,13 @@
         <v>147377</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>232</v>
@@ -5588,13 +5594,13 @@
         <v>251524</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5615,13 @@
         <v>170367</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -5639,13 +5645,13 @@
         <v>375654</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,7 +5707,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5713,13 +5719,13 @@
         <v>58994</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -5728,13 +5734,13 @@
         <v>51608</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -5743,13 +5749,13 @@
         <v>110602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5770,13 @@
         <v>187052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>174</v>
@@ -5779,13 +5785,13 @@
         <v>182236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
         <v>348</v>
@@ -5794,13 +5800,13 @@
         <v>369288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5821,13 @@
         <v>173691</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H24" s="7">
         <v>201</v>
@@ -5830,13 +5836,13 @@
         <v>215458</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>430</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M24" s="7">
         <v>361</v>
@@ -5845,19 +5851,19 @@
         <v>389150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>64</v>
@@ -5866,13 +5872,13 @@
         <v>68708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>28</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5881,13 +5887,13 @@
         <v>83145</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>221</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -5896,13 +5902,13 @@
         <v>151852</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,13 +5923,13 @@
         <v>111027</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
@@ -5932,13 +5938,13 @@
         <v>162713</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>215</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>245</v>
@@ -5947,13 +5953,13 @@
         <v>273740</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,16 +6024,16 @@
         <v>92</v>
       </c>
       <c r="D28" s="7">
-        <v>88665</v>
+        <v>88666</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>374</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -6051,13 +6057,13 @@
         <v>151827</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,16 +6075,16 @@
         <v>187</v>
       </c>
       <c r="D29" s="7">
-        <v>190881</v>
+        <v>190882</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>195</v>
@@ -6087,13 +6093,13 @@
         <v>204795</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>310</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="M29" s="7">
         <v>382</v>
@@ -6102,13 +6108,13 @@
         <v>395676</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>459</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>464</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6129,13 @@
         <v>198810</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H30" s="7">
         <v>211</v>
@@ -6138,10 +6144,10 @@
         <v>229399</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>339</v>
+        <v>466</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>467</v>
@@ -6153,34 +6159,34 @@
         <v>428209</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>113</v>
       </c>
       <c r="D31" s="7">
-        <v>113841</v>
+        <v>113842</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>473</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>474</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>125</v>
@@ -6189,13 +6195,13 @@
         <v>142193</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M31" s="7">
         <v>238</v>
@@ -6204,13 +6210,13 @@
         <v>256034</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6231,13 @@
         <v>164779</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H32" s="7">
         <v>209</v>
@@ -6240,13 +6246,13 @@
         <v>238702</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M32" s="7">
         <v>375</v>
@@ -6255,13 +6261,13 @@
         <v>403481</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,7 +6279,7 @@
         <v>756</v>
       </c>
       <c r="D33" s="7">
-        <v>756977</v>
+        <v>756978</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>59</v>
@@ -6329,13 +6335,13 @@
         <v>329509</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>489</v>
+        <v>137</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>490</v>
+        <v>201</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H34" s="7">
         <v>273</v>
@@ -6344,13 +6350,13 @@
         <v>281869</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M34" s="7">
         <v>586</v>
@@ -6359,13 +6365,13 @@
         <v>611378</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>495</v>
+        <v>69</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6386,13 @@
         <v>707829</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H35" s="7">
         <v>723</v>
@@ -6395,13 +6401,13 @@
         <v>754070</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M35" s="7">
         <v>1398</v>
@@ -6410,13 +6416,13 @@
         <v>1461900</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6437,13 @@
         <v>752913</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H36" s="7">
         <v>768</v>
@@ -6446,13 +6452,13 @@
         <v>819437</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M36" s="7">
         <v>1493</v>
@@ -6461,19 +6467,19 @@
         <v>1572350</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>348</v>
@@ -6482,13 +6488,13 @@
         <v>364238</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H37" s="7">
         <v>420</v>
@@ -6497,13 +6503,13 @@
         <v>457805</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>403</v>
+        <v>515</v>
       </c>
       <c r="M37" s="7">
         <v>768</v>
@@ -6512,13 +6518,13 @@
         <v>822043</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>180</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6539,13 @@
         <v>564559</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H38" s="7">
         <v>697</v>
@@ -6548,13 +6554,13 @@
         <v>768957</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="M38" s="7">
         <v>1236</v>
@@ -6563,13 +6569,13 @@
         <v>1333516</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,7 +6631,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -6646,7 +6652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F2699-E88A-4835-A00F-4BD212893EB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC1125E-CDC8-4B5C-9FD3-8AFDBBEB87B5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6663,7 +6669,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6770,13 +6776,13 @@
         <v>13343</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -6785,13 +6791,13 @@
         <v>10328</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -6800,13 +6806,13 @@
         <v>23670</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6821,13 +6827,13 @@
         <v>24244</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -6836,13 +6842,13 @@
         <v>18929</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>541</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M5" s="7">
         <v>61</v>
@@ -6851,13 +6857,13 @@
         <v>43173</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>541</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>427</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,13 +6878,13 @@
         <v>19124</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>545</v>
+        <v>424</v>
       </c>
       <c r="H6" s="7">
         <v>42</v>
@@ -6887,13 +6893,13 @@
         <v>21037</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>546</v>
+        <v>358</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>309</v>
+        <v>544</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -6902,19 +6908,19 @@
         <v>40161</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>19</v>
@@ -6923,13 +6929,13 @@
         <v>14597</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="H7" s="7">
         <v>50</v>
@@ -6938,13 +6944,13 @@
         <v>26281</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>366</v>
+        <v>551</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -6953,13 +6959,13 @@
         <v>40878</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,7 +6980,7 @@
         <v>23222</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>556</v>
@@ -7004,13 +7010,13 @@
         <v>67108</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,13 +7084,13 @@
         <v>37432</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>563</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>564</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>565</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -7093,7 +7099,7 @@
         <v>52491</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>565</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>566</v>
@@ -7111,10 +7117,10 @@
         <v>568</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,19 +7216,19 @@
         <v>269944</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>113</v>
@@ -7231,7 +7237,7 @@
         <v>94132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>587</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>588</v>
@@ -7261,13 +7267,13 @@
         <v>197589</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>594</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>595</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7288,13 @@
         <v>104454</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>251</v>
@@ -7297,13 +7303,13 @@
         <v>137485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>598</v>
+        <v>520</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M14" s="7">
         <v>389</v>
@@ -7312,13 +7318,13 @@
         <v>241939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>602</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7392,13 @@
         <v>72079</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>603</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>599</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -7401,13 +7407,13 @@
         <v>65145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -7416,13 +7422,13 @@
         <v>137224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,13 +7443,13 @@
         <v>176380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>613</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
@@ -7452,13 +7458,13 @@
         <v>199457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="M17" s="7">
         <v>443</v>
@@ -7467,13 +7473,13 @@
         <v>375837</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7494,13 @@
         <v>254009</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H18" s="7">
         <v>408</v>
@@ -7503,13 +7509,13 @@
         <v>258415</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>187</v>
+        <v>619</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>624</v>
+        <v>484</v>
       </c>
       <c r="M18" s="7">
         <v>654</v>
@@ -7518,19 +7524,19 @@
         <v>512424</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>625</v>
+        <v>464</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>154</v>
@@ -7539,10 +7545,10 @@
         <v>135454</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>571</v>
@@ -7554,13 +7560,13 @@
         <v>164249</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="M19" s="7">
         <v>405</v>
@@ -7569,13 +7575,13 @@
         <v>299703</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>632</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7596,13 @@
         <v>157019</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -7605,13 +7611,13 @@
         <v>235994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>613</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>638</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="M20" s="7">
         <v>534</v>
@@ -7620,13 +7626,13 @@
         <v>393013</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>632</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>633</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,7 +7688,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7694,13 +7700,13 @@
         <v>50707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H22" s="7">
         <v>80</v>
@@ -7709,13 +7715,13 @@
         <v>60991</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -7724,13 +7730,13 @@
         <v>111698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7751,13 @@
         <v>197799</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="H23" s="7">
         <v>261</v>
@@ -7760,13 +7766,13 @@
         <v>310050</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="M23" s="7">
         <v>440</v>
@@ -7775,13 +7781,13 @@
         <v>507848</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7802,13 @@
         <v>160372</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="H24" s="7">
         <v>270</v>
@@ -7811,13 +7817,13 @@
         <v>204678</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>661</v>
+        <v>509</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M24" s="7">
         <v>427</v>
@@ -7826,19 +7832,19 @@
         <v>365049</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>215</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>98</v>
@@ -7847,13 +7853,13 @@
         <v>95162</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>667</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
         <v>146</v>
@@ -7862,13 +7868,13 @@
         <v>89296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M25" s="7">
         <v>244</v>
@@ -7877,13 +7883,13 @@
         <v>184458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7904,13 @@
         <v>103246</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>674</v>
+        <v>290</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="H26" s="7">
         <v>203</v>
@@ -7913,13 +7919,13 @@
         <v>124485</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="M26" s="7">
         <v>318</v>
@@ -7928,13 +7934,13 @@
         <v>227731</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +8008,13 @@
         <v>54592</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>62</v>
+        <v>673</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="H28" s="7">
         <v>89</v>
@@ -8017,13 +8023,13 @@
         <v>71430</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="M28" s="7">
         <v>147</v>
@@ -8032,13 +8038,13 @@
         <v>126022</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>569</v>
+        <v>113</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8059,13 @@
         <v>176898</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>690</v>
+        <v>248</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="H29" s="7">
         <v>264</v>
@@ -8068,13 +8074,13 @@
         <v>184376</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>684</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>262</v>
+        <v>685</v>
       </c>
       <c r="M29" s="7">
         <v>447</v>
@@ -8083,13 +8089,13 @@
         <v>361274</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>694</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>422</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8110,13 @@
         <v>225752</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="H30" s="7">
         <v>385</v>
@@ -8119,13 +8125,13 @@
         <v>269764</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="M30" s="7">
         <v>626</v>
@@ -8134,19 +8140,19 @@
         <v>495516</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>161</v>
@@ -8155,13 +8161,13 @@
         <v>139216</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="H31" s="7">
         <v>249</v>
@@ -8170,13 +8176,13 @@
         <v>168140</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>353</v>
+        <v>699</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="M31" s="7">
         <v>410</v>
@@ -8185,13 +8191,13 @@
         <v>307356</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8206,13 +8212,13 @@
         <v>172760</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>427</v>
+        <v>542</v>
       </c>
       <c r="H32" s="7">
         <v>404</v>
@@ -8224,10 +8230,10 @@
         <v>362</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>613</v>
+        <v>429</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M32" s="7">
         <v>609</v>
@@ -8236,13 +8242,13 @@
         <v>445737</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>343</v>
+        <v>708</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>309</v>
+        <v>544</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>419</v>
+        <v>709</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8316,13 @@
         <v>228153</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>452</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H34" s="7">
         <v>342</v>
@@ -8325,13 +8331,13 @@
         <v>260385</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="M34" s="7">
         <v>559</v>
@@ -8340,13 +8346,13 @@
         <v>488537</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>456</v>
+        <v>714</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8367,13 @@
         <v>691167</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>589</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="H35" s="7">
         <v>1004</v>
@@ -8376,13 +8382,13 @@
         <v>820255</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="M35" s="7">
         <v>1670</v>
@@ -8391,13 +8397,13 @@
         <v>1511422</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,13 +8418,13 @@
         <v>789455</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>125</v>
+        <v>725</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>131</v>
+        <v>726</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H36" s="7">
         <v>1354</v>
@@ -8427,13 +8433,13 @@
         <v>893640</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>731</v>
+        <v>306</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>471</v>
+        <v>729</v>
       </c>
       <c r="M36" s="7">
         <v>2183</v>
@@ -8442,19 +8448,19 @@
         <v>1683095</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>545</v>
@@ -8463,13 +8469,13 @@
         <v>478561</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>734</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H37" s="7">
         <v>890</v>
@@ -8481,10 +8487,10 @@
         <v>163</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>736</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>737</v>
       </c>
       <c r="M37" s="7">
         <v>1435</v>
@@ -8493,13 +8499,13 @@
         <v>1029985</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>167</v>
+        <v>737</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>738</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>314</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8514,10 +8520,10 @@
         <v>560701</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>740</v>
+        <v>161</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>741</v>
@@ -8529,13 +8535,13 @@
         <v>814828</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>363</v>
+        <v>742</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M38" s="7">
         <v>1963</v>
@@ -8544,13 +8550,13 @@
         <v>1375529</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>36</v>
+        <v>744</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8606,7 +8612,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2815AE70-5D3D-4C8C-BBBA-991B4F6863A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{357B4A0B-56A0-4D27-A4A6-ADE66CEC7EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9211F908-8EF2-4517-B7ED-372EFE6E32AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AFC69719-4FB5-49F1-85FD-F26177FD1C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="735">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2012 (Tasa respuesta: 83,66%)</t>
   </si>
@@ -76,2209 +76,2173 @@
     <t>3,58%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>3,34%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2016 (Tasa respuesta: 83,44%)</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2016 (Tasa respuesta: 83,44%)</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la tensión arterial en 2023 (Tasa respuesta: 89,33%)</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11C8A42-D1F8-47A0-A1B1-EEC7171F53E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148AD7A8-20F5-4A92-B8C3-571103E76D6E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2919,10 +2883,10 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -2931,13 +2895,13 @@
         <v>13051</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>35</v>
@@ -2946,19 +2910,19 @@
         <v>33641</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -2967,13 +2931,13 @@
         <v>9454</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2982,13 +2946,13 @@
         <v>12530</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -2997,19 +2961,19 @@
         <v>21984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>37</v>
@@ -3018,13 +2982,13 @@
         <v>36042</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
@@ -3033,13 +2997,13 @@
         <v>48331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>80</v>
@@ -3048,13 +3012,13 @@
         <v>84373</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3033,13 @@
         <v>90839</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>85</v>
@@ -3084,13 +3048,13 @@
         <v>97386</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>181</v>
@@ -3099,18 +3063,18 @@
         <v>188225</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3122,13 +3086,13 @@
         <v>46782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -3137,13 +3101,13 @@
         <v>37273</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -3152,13 +3116,13 @@
         <v>84056</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,10 +3140,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>69</v>
@@ -3188,13 +3152,13 @@
         <v>71409</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
@@ -3203,13 +3167,13 @@
         <v>153788</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3188,13 @@
         <v>121183</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>77</v>
@@ -3239,13 +3203,13 @@
         <v>82828</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
@@ -3254,19 +3218,19 @@
         <v>204011</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>60</v>
@@ -3275,13 +3239,13 @@
         <v>68382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -3290,10 +3254,10 @@
         <v>74255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>92</v>
@@ -3317,7 +3281,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>166</v>
@@ -3377,13 +3341,13 @@
         <v>495989</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>472</v>
@@ -3392,13 +3356,13 @@
         <v>501510</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>934</v>
@@ -3407,13 +3371,13 @@
         <v>997498</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,7 +3502,7 @@
         <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>190</v>
@@ -3547,13 +3511,13 @@
         <v>210753</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>383</v>
@@ -3562,19 +3526,19 @@
         <v>415545</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>89</v>
@@ -3583,13 +3547,13 @@
         <v>100998</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>117</v>
@@ -3598,13 +3562,13 @@
         <v>126956</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -3613,19 +3577,19 @@
         <v>227954</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>236</v>
@@ -3634,13 +3598,13 @@
         <v>260456</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>307</v>
@@ -3649,13 +3613,13 @@
         <v>338462</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>543</v>
@@ -3664,13 +3628,13 @@
         <v>598918</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3649,13 @@
         <v>806123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>803</v>
@@ -3700,13 +3664,13 @@
         <v>882638</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1543</v>
@@ -3715,18 +3679,18 @@
         <v>1688761</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3738,13 +3702,13 @@
         <v>53070</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -3753,13 +3717,13 @@
         <v>49308</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>92</v>
@@ -3768,13 +3732,13 @@
         <v>102378</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3753,13 @@
         <v>133975</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>99</v>
@@ -3804,13 +3768,13 @@
         <v>111319</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>227</v>
@@ -3819,13 +3783,13 @@
         <v>245294</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3804,13 @@
         <v>180335</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="H24" s="7">
         <v>148</v>
@@ -3855,13 +3819,13 @@
         <v>165764</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>308</v>
@@ -3870,19 +3834,19 @@
         <v>346100</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>57</v>
@@ -3891,13 +3855,13 @@
         <v>62947</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -3906,13 +3870,13 @@
         <v>102762</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
@@ -3921,19 +3885,19 @@
         <v>165709</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>159</v>
@@ -3942,13 +3906,13 @@
         <v>179558</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>225</v>
@@ -3957,13 +3921,13 @@
         <v>244999</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>384</v>
@@ -3972,13 +3936,13 @@
         <v>424558</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3957,13 @@
         <v>609885</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>611</v>
@@ -4008,13 +3972,13 @@
         <v>674153</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1162</v>
@@ -4023,18 +3987,18 @@
         <v>1284039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4046,13 +4010,13 @@
         <v>72111</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>75</v>
@@ -4061,13 +4025,13 @@
         <v>80340</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>148</v>
@@ -4076,13 +4040,13 @@
         <v>152450</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,7 +4154,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>88</v>
@@ -4241,7 +4205,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>252</v>
@@ -4301,13 +4265,13 @@
         <v>779038</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>882</v>
@@ -4316,13 +4280,13 @@
         <v>927415</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>1624</v>
@@ -4331,13 +4295,13 @@
         <v>1706453</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4399,13 @@
         <v>1092470</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4420,13 @@
         <v>682324</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>603</v>
@@ -4471,13 +4435,13 @@
         <v>657479</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>1238</v>
@@ -4486,19 +4450,19 @@
         <v>1339803</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>304</v>
@@ -4507,13 +4471,13 @@
         <v>337827</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>395</v>
@@ -4522,13 +4486,13 @@
         <v>421920</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>699</v>
@@ -4537,19 +4501,19 @@
         <v>759747</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>850</v>
@@ -4558,13 +4522,13 @@
         <v>924941</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>1162</v>
@@ -4573,13 +4537,13 @@
         <v>1253039</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>2012</v>
@@ -4588,13 +4552,13 @@
         <v>2177980</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4573,13 @@
         <v>2781874</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>2853</v>
@@ -4624,13 +4588,13 @@
         <v>3083102</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>5444</v>
@@ -4639,18 +4603,18 @@
         <v>5864976</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4671,7 +4635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2CEC09-2E0E-46E8-B945-C05AE572C22C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F0BEAC-72BA-4E6D-AD29-73839616B8F5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4688,7 +4652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4795,13 +4759,13 @@
         <v>10755</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4810,13 +4774,13 @@
         <v>8499</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4825,13 +4789,13 @@
         <v>19254</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4810,13 @@
         <v>23488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4861,13 +4825,13 @@
         <v>20423</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -4876,13 +4840,13 @@
         <v>43911</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4861,13 @@
         <v>26131</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -4912,13 +4876,13 @@
         <v>34022</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -4927,19 +4891,19 @@
         <v>60153</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>14</v>
@@ -4948,13 +4912,13 @@
         <v>15843</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4963,13 +4927,13 @@
         <v>8895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4978,19 +4942,19 @@
         <v>24738</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>26</v>
@@ -4999,13 +4963,13 @@
         <v>26743</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -5014,13 +4978,13 @@
         <v>27750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -5029,13 +4993,13 @@
         <v>54493</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5014,13 @@
         <v>102959</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -5065,13 +5029,13 @@
         <v>99590</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>200</v>
@@ -5080,18 +5044,18 @@
         <v>202549</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5103,13 +5067,13 @@
         <v>56592</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5118,13 +5082,13 @@
         <v>42093</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -5133,13 +5097,13 @@
         <v>98685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,10 +5121,10 @@
         <v>334</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>111</v>
@@ -5169,13 +5133,13 @@
         <v>109365</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>212</v>
@@ -5184,13 +5148,13 @@
         <v>213013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5169,13 @@
         <v>130591</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H12" s="7">
         <v>111</v>
@@ -5220,13 +5184,13 @@
         <v>114074</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M12" s="7">
         <v>239</v>
@@ -5235,19 +5199,19 @@
         <v>244665</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>60</v>
@@ -5256,13 +5220,13 @@
         <v>61699</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5271,13 +5235,13 @@
         <v>76196</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5286,19 +5250,19 @@
         <v>137895</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>89</v>
@@ -5307,13 +5271,13 @@
         <v>91644</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -5322,13 +5286,13 @@
         <v>134504</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>217</v>
@@ -5337,13 +5301,13 @@
         <v>226148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5322,13 @@
         <v>444174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>466</v>
@@ -5373,13 +5337,13 @@
         <v>476232</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>896</v>
@@ -5388,13 +5352,13 @@
         <v>920406</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5375,13 @@
         <v>114502</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -5426,13 +5390,13 @@
         <v>116508</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -5441,13 +5405,13 @@
         <v>231010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5426,13 @@
         <v>202760</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
         <v>224</v>
@@ -5477,13 +5441,13 @@
         <v>237252</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -5492,13 +5456,13 @@
         <v>440012</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5477,13 @@
         <v>223690</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H18" s="7">
         <v>210</v>
@@ -5528,13 +5492,13 @@
         <v>226484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>389</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="M18" s="7">
         <v>423</v>
@@ -5543,19 +5507,19 @@
         <v>450174</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>97</v>
@@ -5564,13 +5528,13 @@
         <v>104147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -5579,13 +5543,13 @@
         <v>147377</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
         <v>232</v>
@@ -5594,19 +5558,19 @@
         <v>251524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>159</v>
@@ -5615,13 +5579,13 @@
         <v>170367</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -5630,13 +5594,13 @@
         <v>205287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M20" s="7">
         <v>345</v>
@@ -5645,13 +5609,13 @@
         <v>375654</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5630,13 @@
         <v>815466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>867</v>
@@ -5681,13 +5645,13 @@
         <v>932907</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1630</v>
@@ -5696,18 +5660,18 @@
         <v>1748373</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5719,13 +5683,13 @@
         <v>58994</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -5734,13 +5698,13 @@
         <v>51608</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -5749,13 +5713,13 @@
         <v>110602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5734,13 @@
         <v>187052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="H23" s="7">
         <v>174</v>
@@ -5785,13 +5749,13 @@
         <v>182236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>211</v>
+        <v>415</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M23" s="7">
         <v>348</v>
@@ -5800,13 +5764,13 @@
         <v>369288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5785,13 @@
         <v>173691</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H24" s="7">
         <v>201</v>
@@ -5836,13 +5800,13 @@
         <v>215458</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="M24" s="7">
         <v>361</v>
@@ -5851,19 +5815,19 @@
         <v>389150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>64</v>
@@ -5872,13 +5836,13 @@
         <v>68708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5887,13 +5851,13 @@
         <v>83145</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>221</v>
+        <v>407</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -5902,19 +5866,19 @@
         <v>151852</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>99</v>
@@ -5923,13 +5887,13 @@
         <v>111027</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
@@ -5938,13 +5902,13 @@
         <v>162713</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>215</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>245</v>
@@ -5953,13 +5917,13 @@
         <v>273740</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>450</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +5938,13 @@
         <v>599472</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>648</v>
@@ -5989,13 +5953,13 @@
         <v>695160</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1199</v>
@@ -6004,18 +5968,18 @@
         <v>1294632</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6024,16 +5988,16 @@
         <v>92</v>
       </c>
       <c r="D28" s="7">
-        <v>88666</v>
+        <v>88665</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>374</v>
+        <v>445</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>416</v>
+        <v>290</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -6042,13 +6006,13 @@
         <v>63162</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>152</v>
@@ -6057,13 +6021,13 @@
         <v>151827</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>246</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,16 +6039,16 @@
         <v>187</v>
       </c>
       <c r="D29" s="7">
-        <v>190882</v>
+        <v>190881</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>195</v>
@@ -6093,13 +6057,13 @@
         <v>204795</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>310</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>423</v>
+        <v>257</v>
       </c>
       <c r="M29" s="7">
         <v>382</v>
@@ -6108,13 +6072,13 @@
         <v>395676</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>258</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6093,13 @@
         <v>198810</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H30" s="7">
         <v>211</v>
@@ -6144,13 +6108,13 @@
         <v>229399</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M30" s="7">
         <v>409</v>
@@ -6159,34 +6123,34 @@
         <v>428209</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>113</v>
       </c>
       <c r="D31" s="7">
-        <v>113842</v>
+        <v>113841</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="H31" s="7">
         <v>125</v>
@@ -6195,13 +6159,13 @@
         <v>142193</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M31" s="7">
         <v>238</v>
@@ -6210,19 +6174,19 @@
         <v>256034</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>477</v>
+        <v>363</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>166</v>
@@ -6231,13 +6195,13 @@
         <v>164779</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H32" s="7">
         <v>209</v>
@@ -6246,13 +6210,13 @@
         <v>238702</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>482</v>
+        <v>383</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M32" s="7">
         <v>375</v>
@@ -6261,13 +6225,13 @@
         <v>403481</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,16 +6243,16 @@
         <v>756</v>
       </c>
       <c r="D33" s="7">
-        <v>756978</v>
+        <v>756977</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>800</v>
@@ -6297,13 +6261,13 @@
         <v>878250</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>1556</v>
@@ -6312,13 +6276,13 @@
         <v>1635227</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6299,13 @@
         <v>329509</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>137</v>
+        <v>483</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>201</v>
+        <v>484</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>488</v>
+        <v>34</v>
       </c>
       <c r="H34" s="7">
         <v>273</v>
@@ -6350,13 +6314,13 @@
         <v>281869</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>490</v>
+        <v>133</v>
       </c>
       <c r="M34" s="7">
         <v>586</v>
@@ -6365,13 +6329,13 @@
         <v>611378</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>69</v>
+        <v>487</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6350,13 @@
         <v>707829</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H35" s="7">
         <v>723</v>
@@ -6401,13 +6365,13 @@
         <v>754070</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M35" s="7">
         <v>1398</v>
@@ -6416,13 +6380,13 @@
         <v>1461900</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6401,13 @@
         <v>752913</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H36" s="7">
         <v>768</v>
@@ -6452,13 +6416,13 @@
         <v>819437</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>505</v>
+        <v>29</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M36" s="7">
         <v>1493</v>
@@ -6467,19 +6431,19 @@
         <v>1572350</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>509</v>
+        <v>319</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>348</v>
@@ -6488,13 +6452,13 @@
         <v>364238</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="H37" s="7">
         <v>420</v>
@@ -6503,13 +6467,13 @@
         <v>457805</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>513</v>
+        <v>184</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M37" s="7">
         <v>768</v>
@@ -6518,19 +6482,19 @@
         <v>822043</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>396</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>539</v>
@@ -6539,13 +6503,13 @@
         <v>564559</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>520</v>
+        <v>415</v>
       </c>
       <c r="H38" s="7">
         <v>697</v>
@@ -6554,13 +6518,13 @@
         <v>768957</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M38" s="7">
         <v>1236</v>
@@ -6569,13 +6533,13 @@
         <v>1333516</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6554,13 @@
         <v>2719048</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>2881</v>
@@ -6605,13 +6569,13 @@
         <v>3082138</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>5481</v>
@@ -6620,18 +6584,18 @@
         <v>5801187</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6652,7 +6616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC1125E-CDC8-4B5C-9FD3-8AFDBBEB87B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A937035-4031-444A-B1AC-B39FE8CBE29A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6669,7 +6633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6776,13 +6740,13 @@
         <v>13343</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -6794,10 +6758,10 @@
         <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>33</v>
+        <v>525</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -6806,13 +6770,13 @@
         <v>23670</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6791,13 @@
         <v>24244</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -6842,13 +6806,13 @@
         <v>18929</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>533</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="M5" s="7">
         <v>61</v>
@@ -6857,13 +6821,13 @@
         <v>43173</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6842,13 @@
         <v>19124</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>543</v>
+        <v>457</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>87</v>
+        <v>538</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>424</v>
+        <v>539</v>
       </c>
       <c r="H6" s="7">
         <v>42</v>
@@ -6893,13 +6857,13 @@
         <v>21037</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>358</v>
+        <v>540</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>133</v>
+        <v>541</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>544</v>
+        <v>334</v>
       </c>
       <c r="M6" s="7">
         <v>68</v>
@@ -6908,19 +6872,19 @@
         <v>40161</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>547</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>19</v>
@@ -6929,13 +6893,13 @@
         <v>14597</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H7" s="7">
         <v>50</v>
@@ -6944,13 +6908,13 @@
         <v>26281</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -6959,19 +6923,19 @@
         <v>40878</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>28</v>
@@ -6980,13 +6944,13 @@
         <v>23222</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H8" s="7">
         <v>85</v>
@@ -6995,13 +6959,13 @@
         <v>43887</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M8" s="7">
         <v>113</v>
@@ -7010,13 +6974,13 @@
         <v>67108</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>558</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,13 +6995,13 @@
         <v>94530</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>230</v>
@@ -7046,13 +7010,13 @@
         <v>120462</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>341</v>
@@ -7061,18 +7025,18 @@
         <v>214991</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7084,13 +7048,13 @@
         <v>37432</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -7099,13 +7063,13 @@
         <v>52491</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>566</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>567</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -7114,13 +7078,13 @@
         <v>89923</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>527</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7099,13 @@
         <v>115847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>570</v>
+        <v>381</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>572</v>
+        <v>503</v>
       </c>
       <c r="H11" s="7">
         <v>166</v>
@@ -7150,13 +7114,13 @@
         <v>107444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M11" s="7">
         <v>279</v>
@@ -7165,13 +7129,13 @@
         <v>223291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7150,13 @@
         <v>130197</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H12" s="7">
         <v>249</v>
@@ -7201,13 +7165,13 @@
         <v>139747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>583</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>584</v>
+        <v>420</v>
       </c>
       <c r="M12" s="7">
         <v>408</v>
@@ -7216,19 +7180,19 @@
         <v>269944</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>501</v>
+        <v>579</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>113</v>
@@ -7237,13 +7201,13 @@
         <v>94132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H13" s="7">
         <v>194</v>
@@ -7252,13 +7216,13 @@
         <v>103457</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>591</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="M13" s="7">
         <v>307</v>
@@ -7267,19 +7231,19 @@
         <v>197589</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>587</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>138</v>
@@ -7288,13 +7252,13 @@
         <v>104454</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>595</v>
+        <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>590</v>
       </c>
       <c r="H14" s="7">
         <v>251</v>
@@ -7303,13 +7267,13 @@
         <v>137485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="M14" s="7">
         <v>389</v>
@@ -7318,13 +7282,13 @@
         <v>241939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,13 +7303,13 @@
         <v>482061</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>931</v>
@@ -7354,13 +7318,13 @@
         <v>540624</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1491</v>
@@ -7369,13 +7333,13 @@
         <v>1022686</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,13 +7356,13 @@
         <v>72079</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>595</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -7407,13 +7371,13 @@
         <v>65145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>601</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -7422,13 +7386,13 @@
         <v>137224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7407,13 @@
         <v>176380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>607</v>
+        <v>454</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
@@ -7458,13 +7422,13 @@
         <v>199457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M17" s="7">
         <v>443</v>
@@ -7473,13 +7437,13 @@
         <v>375837</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,13 +7458,13 @@
         <v>254009</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H18" s="7">
         <v>408</v>
@@ -7509,13 +7473,13 @@
         <v>258415</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>484</v>
+        <v>615</v>
       </c>
       <c r="M18" s="7">
         <v>654</v>
@@ -7524,19 +7488,19 @@
         <v>512424</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>464</v>
+        <v>616</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>154</v>
@@ -7545,13 +7509,13 @@
         <v>135454</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H19" s="7">
         <v>251</v>
@@ -7560,13 +7524,13 @@
         <v>164249</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>625</v>
       </c>
       <c r="M19" s="7">
         <v>405</v>
@@ -7575,19 +7539,19 @@
         <v>299703</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>183</v>
@@ -7596,13 +7560,13 @@
         <v>157019</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>629</v>
+        <v>570</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>630</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -7611,13 +7575,13 @@
         <v>235994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>627</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>628</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>631</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>534</v>
@@ -7626,13 +7590,13 @@
         <v>393013</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,16 +7608,16 @@
         <v>817</v>
       </c>
       <c r="D21" s="7">
-        <v>794941</v>
+        <v>794940</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1372</v>
@@ -7662,13 +7626,13 @@
         <v>923260</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>2189</v>
@@ -7677,18 +7641,18 @@
         <v>1718201</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7700,13 +7664,13 @@
         <v>50707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H22" s="7">
         <v>80</v>
@@ -7715,13 +7679,13 @@
         <v>60991</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -7730,13 +7694,13 @@
         <v>111698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>641</v>
+        <v>317</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7715,13 @@
         <v>197799</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H23" s="7">
         <v>261</v>
@@ -7766,13 +7730,13 @@
         <v>310050</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="M23" s="7">
         <v>440</v>
@@ -7781,13 +7745,13 @@
         <v>507848</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>649</v>
+        <v>310</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,13 +7766,13 @@
         <v>160372</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>653</v>
+        <v>375</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="H24" s="7">
         <v>270</v>
@@ -7817,13 +7781,13 @@
         <v>204678</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>509</v>
+        <v>650</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>420</v>
+        <v>652</v>
       </c>
       <c r="M24" s="7">
         <v>427</v>
@@ -7832,19 +7796,19 @@
         <v>365049</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>215</v>
+        <v>654</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>98</v>
@@ -7853,13 +7817,13 @@
         <v>95162</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>659</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>338</v>
+        <v>657</v>
       </c>
       <c r="H25" s="7">
         <v>146</v>
@@ -7868,13 +7832,13 @@
         <v>89296</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>661</v>
+        <v>196</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M25" s="7">
         <v>244</v>
@@ -7883,19 +7847,19 @@
         <v>184458</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>115</v>
@@ -7904,13 +7868,13 @@
         <v>103246</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>290</v>
+        <v>663</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>666</v>
+        <v>115</v>
       </c>
       <c r="H26" s="7">
         <v>203</v>
@@ -7919,13 +7883,13 @@
         <v>124485</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M26" s="7">
         <v>318</v>
@@ -7934,13 +7898,13 @@
         <v>227731</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,13 +7919,13 @@
         <v>607286</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>960</v>
@@ -7970,13 +7934,13 @@
         <v>789500</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1550</v>
@@ -7985,18 +7949,18 @@
         <v>1396786</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8008,13 +7972,13 @@
         <v>54592</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H28" s="7">
         <v>89</v>
@@ -8023,13 +7987,13 @@
         <v>71430</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>677</v>
+        <v>17</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>678</v>
+        <v>246</v>
       </c>
       <c r="M28" s="7">
         <v>147</v>
@@ -8038,13 +8002,13 @@
         <v>126022</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>674</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>679</v>
+        <v>638</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8023,13 @@
         <v>176898</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>248</v>
+        <v>677</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="H29" s="7">
         <v>264</v>
@@ -8074,13 +8038,13 @@
         <v>184376</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="M29" s="7">
         <v>447</v>
@@ -8089,13 +8053,13 @@
         <v>361274</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>683</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>632</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8074,13 @@
         <v>225752</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>689</v>
       </c>
       <c r="H30" s="7">
         <v>385</v>
@@ -8125,13 +8089,13 @@
         <v>269764</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>691</v>
+        <v>124</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="M30" s="7">
         <v>626</v>
@@ -8140,19 +8104,19 @@
         <v>495516</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>694</v>
+        <v>346</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>161</v>
@@ -8161,13 +8125,13 @@
         <v>139216</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>696</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H31" s="7">
         <v>249</v>
@@ -8176,13 +8140,13 @@
         <v>168140</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="M31" s="7">
         <v>410</v>
@@ -8191,19 +8155,19 @@
         <v>307356</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>703</v>
+        <v>122</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>704</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>205</v>
@@ -8212,13 +8176,13 @@
         <v>172760</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>542</v>
+        <v>699</v>
       </c>
       <c r="H32" s="7">
         <v>404</v>
@@ -8227,13 +8191,13 @@
         <v>272976</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>429</v>
+        <v>700</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="M32" s="7">
         <v>609</v>
@@ -8242,13 +8206,13 @@
         <v>445737</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>708</v>
+        <v>186</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>544</v>
+        <v>702</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>709</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,13 +8227,13 @@
         <v>769218</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>1391</v>
@@ -8278,13 +8242,13 @@
         <v>966686</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>2239</v>
@@ -8293,13 +8257,13 @@
         <v>1735905</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8280,13 @@
         <v>228153</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>452</v>
+        <v>704</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="H34" s="7">
         <v>342</v>
@@ -8331,13 +8295,13 @@
         <v>260385</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>713</v>
+        <v>69</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="M34" s="7">
         <v>559</v>
@@ -8346,13 +8310,13 @@
         <v>488537</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>715</v>
+        <v>153</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>716</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8331,13 @@
         <v>691167</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>589</v>
+        <v>334</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H35" s="7">
         <v>1004</v>
@@ -8382,13 +8346,13 @@
         <v>820255</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="M35" s="7">
         <v>1670</v>
@@ -8397,13 +8361,13 @@
         <v>1511422</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>723</v>
+        <v>256</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>724</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8418,13 +8382,13 @@
         <v>789455</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>725</v>
+        <v>376</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="H36" s="7">
         <v>1354</v>
@@ -8433,13 +8397,13 @@
         <v>893640</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>306</v>
+        <v>580</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="M36" s="7">
         <v>2183</v>
@@ -8448,19 +8412,19 @@
         <v>1683095</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>428</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>545</v>
@@ -8469,13 +8433,13 @@
         <v>478561</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>732</v>
+        <v>351</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>734</v>
+        <v>550</v>
       </c>
       <c r="H37" s="7">
         <v>890</v>
@@ -8484,13 +8448,13 @@
         <v>551424</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="M37" s="7">
         <v>1435</v>
@@ -8499,19 +8463,19 @@
         <v>1029985</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>669</v>
@@ -8520,13 +8484,13 @@
         <v>560701</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>161</v>
+        <v>657</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="H38" s="7">
         <v>1294</v>
@@ -8535,13 +8499,13 @@
         <v>814828</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>316</v>
+        <v>161</v>
       </c>
       <c r="M38" s="7">
         <v>1963</v>
@@ -8550,13 +8514,13 @@
         <v>1375529</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8571,13 +8535,13 @@
         <v>2748036</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>4884</v>
@@ -8586,13 +8550,13 @@
         <v>3340532</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>7810</v>
@@ -8601,18 +8565,18 @@
         <v>6088568</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
